--- a/output/fit_clients/fit_round_380.xlsx
+++ b/output/fit_clients/fit_round_380.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2110186104.278345</v>
+        <v>1709481242.427037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07329753242866185</v>
+        <v>0.09800252402113128</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03746661952092722</v>
+        <v>0.03276607033302922</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1055093062.649714</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2159895392.080131</v>
+        <v>2214510380.496453</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1779008071626979</v>
+        <v>0.1115582272864161</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04660361547030221</v>
+        <v>0.04094442168771239</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1079947760.870943</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3770715267.731196</v>
+        <v>4808395436.518373</v>
       </c>
       <c r="F4" t="n">
-        <v>0.103609337772424</v>
+        <v>0.1242326410532298</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03095434983883967</v>
+        <v>0.02852302918578723</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>137</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1885357631.8048</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3638660932.7094</v>
+        <v>3538618368.128139</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09708275829462883</v>
+        <v>0.07712809612834817</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03416674696569471</v>
+        <v>0.05093686321744118</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>140</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1819330493.971923</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2826105506.313468</v>
+        <v>2061300036.460244</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1215709553831754</v>
+        <v>0.09555628487586583</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04081360735680166</v>
+        <v>0.05408616871779033</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1413052693.360076</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2350233928.236017</v>
+        <v>2255371557.723552</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0774743892516916</v>
+        <v>0.06483042088462435</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03876565838052491</v>
+        <v>0.04783594581677721</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>120</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1175116991.625792</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2868470380.150117</v>
+        <v>3615230942.834787</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1578503083994933</v>
+        <v>0.2101596472061927</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02294292506346602</v>
+        <v>0.02959216617476197</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>123</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1434235234.154027</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2238099718.351475</v>
+        <v>1570510223.986986</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1245022517134668</v>
+        <v>0.1615538272446689</v>
       </c>
       <c r="G9" t="n">
-        <v>0.026533921683104</v>
+        <v>0.02926022670265738</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1119049852.767285</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4039021777.333829</v>
+        <v>4425495582.213765</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1530101438483359</v>
+        <v>0.1993189714700802</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04352497539765257</v>
+        <v>0.04587525583118712</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>159</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2019510913.566742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3711002369.806549</v>
+        <v>3392995934.848167</v>
       </c>
       <c r="F11" t="n">
-        <v>0.178822666068723</v>
+        <v>0.1672244666786202</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04435192851192431</v>
+        <v>0.03231439809433679</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>157</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1855501177.422019</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2559284518.903834</v>
+        <v>2334090646.609668</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1751803136857675</v>
+        <v>0.1862086296974558</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04112154723206377</v>
+        <v>0.05247291454329348</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>129</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1279642237.128587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4028276556.543077</v>
+        <v>4208892465.579869</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08246346207158406</v>
+        <v>0.08571874889316586</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01944231730398937</v>
+        <v>0.02206240863013244</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>128</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2014138331.776108</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3047736570.586659</v>
+        <v>3890464246.187259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1710392992550503</v>
+        <v>0.1627838408648337</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0390050453550765</v>
+        <v>0.03922736767894006</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>121</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1523868316.289139</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1552969632.852515</v>
+        <v>1730999801.431252</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1084935222903661</v>
+        <v>0.09647416113192861</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04485368466383102</v>
+        <v>0.037535781798844</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>776484913.9494901</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1798809442.506512</v>
+        <v>2718070285.905538</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09269347293570723</v>
+        <v>0.0884210904754687</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03193053223398404</v>
+        <v>0.04459967230817762</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>77</v>
-      </c>
-      <c r="J16" t="n">
-        <v>899404814.7349075</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4181973377.329576</v>
+        <v>3224871939.177822</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1391349271796118</v>
+        <v>0.1289613738078584</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03719598059539452</v>
+        <v>0.05158448552061722</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>111</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2090986714.272671</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2546549786.768913</v>
+        <v>2890748496.432638</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1207910625568592</v>
+        <v>0.132200387335358</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02459372961718746</v>
+        <v>0.02869287765192981</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>124</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1273274956.545037</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1336971160.45432</v>
+        <v>1345206337.937394</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1699908070646877</v>
+        <v>0.1239176866695769</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02428776091072125</v>
+        <v>0.01658232071924952</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>668485691.5018159</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1774145413.060157</v>
+        <v>1732069597.026352</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1314145029505647</v>
+        <v>0.1367129629057599</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02006591481178671</v>
+        <v>0.02075109309104518</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>887072756.9317776</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1734757388.934474</v>
+        <v>2592027866.756247</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0648206905823599</v>
+        <v>0.08690946214141762</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03060939349307908</v>
+        <v>0.03090474200106437</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>867378755.7785878</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3386058504.614439</v>
+        <v>2522584024.356577</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1405007662080453</v>
+        <v>0.1225428601615902</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05189316613262068</v>
+        <v>0.04847424630489115</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1693029290.735294</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1543842213.487014</v>
+        <v>1457004866.157223</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1199272912408738</v>
+        <v>0.1382422685321096</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04840755016205357</v>
+        <v>0.03848461444362924</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>771921085.3286996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3266545708.822578</v>
+        <v>2754407226.464938</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1041778956132154</v>
+        <v>0.09395636908559184</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03298886812962814</v>
+        <v>0.03190300457409246</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>111</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1633272871.739582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1223863116.535613</v>
+        <v>1102186501.917885</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08085339626591394</v>
+        <v>0.08833602644908949</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02168484629839199</v>
+        <v>0.02704223150761438</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>611931570.7560006</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1295742886.839526</v>
+        <v>1019310714.048304</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0985589716974735</v>
+        <v>0.1077958695977091</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03192258857939662</v>
+        <v>0.03753283072263987</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>647871487.8828062</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4207269078.940467</v>
+        <v>3182671186.333709</v>
       </c>
       <c r="F27" t="n">
-        <v>0.153415445970386</v>
+        <v>0.115358575586043</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02023922627867773</v>
+        <v>0.02716780776490547</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>86</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2103634539.3175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3731048775.411027</v>
+        <v>2797886023.706665</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1072637114245513</v>
+        <v>0.0917151420202497</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03897348088239729</v>
+        <v>0.04249059127381148</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>122</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1865524462.405122</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5901662610.420196</v>
+        <v>4503212404.51517</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1019381084791735</v>
+        <v>0.1393267370658341</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04415144675096035</v>
+        <v>0.03394964051381505</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>167</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2950831190.356164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1725521050.631938</v>
+        <v>1475281884.640764</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1299282069835812</v>
+        <v>0.09890798610261586</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03894440049817752</v>
+        <v>0.03684157585143891</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>862760531.5105909</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1344797992.866772</v>
+        <v>927057957.5987885</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07901578312391086</v>
+        <v>0.1063964862688409</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04243580140255428</v>
+        <v>0.05095375886030249</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>672398913.8163846</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1152471077.569436</v>
+        <v>1304110694.122614</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09065765390632462</v>
+        <v>0.09082777550779546</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03086929818495088</v>
+        <v>0.0293823199806539</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>576235535.1794283</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2312801039.891016</v>
+        <v>3033735584.372973</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1375737534688684</v>
+        <v>0.2084104408493929</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05504116349436582</v>
+        <v>0.05981435100598587</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>114</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1156400574.11006</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1032261801.768756</v>
+        <v>1225209435.539412</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09774444506815426</v>
+        <v>0.0910934200136114</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02683253215468566</v>
+        <v>0.01836902179671551</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>516130933.5037208</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1342311022.413771</v>
+        <v>928253938.0939617</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08128196104250072</v>
+        <v>0.1066590975267701</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0370330689600212</v>
+        <v>0.02942007310101662</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>671155454.7305824</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2117404383.053842</v>
+        <v>2580871413.894049</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1712631096541737</v>
+        <v>0.1236548570778935</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02344103843030215</v>
+        <v>0.0263410727596897</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>95</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1058702244.187349</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1887938114.889521</v>
+        <v>2810747987.28151</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09218510417865969</v>
+        <v>0.1065522141827738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03118635205949485</v>
+        <v>0.03205989270528357</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>101</v>
-      </c>
-      <c r="J37" t="n">
-        <v>943969069.3093711</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1747735190.064817</v>
+        <v>1846678555.658945</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07604027886094307</v>
+        <v>0.09045375916965237</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0315235357377533</v>
+        <v>0.03795364971034298</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>873867609.3038419</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1574766649.250684</v>
+        <v>1785876491.094784</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1249013965088132</v>
+        <v>0.1831864020793343</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02852211580883541</v>
+        <v>0.02338671753848599</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>787383383.7298769</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1211219193.44276</v>
+        <v>1805612950.881468</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1460505858532454</v>
+        <v>0.1454116657461136</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03633788857359062</v>
+        <v>0.04545548963514044</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>605609635.2222654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2282674151.966056</v>
+        <v>2182615755.918454</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1473027316203186</v>
+        <v>0.142830886820045</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0402668068595663</v>
+        <v>0.04107137963254375</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>98</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1141337122.513319</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3086046762.53466</v>
+        <v>3943837976.879508</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08933892350553352</v>
+        <v>0.08900551930870228</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03547453075727328</v>
+        <v>0.03769893201601559</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1543023347.63477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2380673974.207253</v>
+        <v>1923806162.302981</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1778411026654285</v>
+        <v>0.1410628686159197</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02021150404411583</v>
+        <v>0.01767418025462089</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>133</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1190337047.777395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1885001947.8213</v>
+        <v>2119179852.655722</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0728395228451022</v>
+        <v>0.08030654161881519</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03351584089579483</v>
+        <v>0.0279904360565087</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>942501057.3070226</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2521263792.975349</v>
+        <v>2408276420.650621</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1595462437722305</v>
+        <v>0.1276265056847499</v>
       </c>
       <c r="G45" t="n">
-        <v>0.047918098945621</v>
+        <v>0.04037039302047376</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1260631939.907522</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3908858523.983924</v>
+        <v>4987477093.676342</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1358806581347126</v>
+        <v>0.1588060788767319</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05753310915521576</v>
+        <v>0.03936357568388952</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>135</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1954429226.315185</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3520989346.397518</v>
+        <v>4619827738.644565</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1989065598124243</v>
+        <v>0.1924570173623779</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05641438073410002</v>
+        <v>0.03656894495674246</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>102</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1760494645.246911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3178932878.694716</v>
+        <v>3117375985.666265</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08137687834904089</v>
+        <v>0.07587547152346032</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02891206724477802</v>
+        <v>0.02809968505062407</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1589466521.43789</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1625821070.573342</v>
+        <v>1788799115.055228</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1372008001008565</v>
+        <v>0.1302097662586736</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04401803340436711</v>
+        <v>0.03817005754898943</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>812910547.7721072</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3393940160.505048</v>
+        <v>3724977444.304723</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1455059706333283</v>
+        <v>0.1076114299540721</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03897325044419989</v>
+        <v>0.04864849002390023</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>129</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1696970112.089646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1408633078.704201</v>
+        <v>1152117158.991686</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1635346649548604</v>
+        <v>0.191606976690759</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04054504682676156</v>
+        <v>0.04426891435953923</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>704316557.1076397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3681010176.009723</v>
+        <v>4436456371.38318</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1377836605187406</v>
+        <v>0.122890540376401</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03728838575136914</v>
+        <v>0.06184140289092675</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>156</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1840505163.267009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3794344326.188308</v>
+        <v>3493533734.952237</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1587692776364839</v>
+        <v>0.1307878648457633</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02399950990855139</v>
+        <v>0.02185213321089846</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>108</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1897172140.694834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4833539541.48233</v>
+        <v>3958687524.272315</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1568049720686629</v>
+        <v>0.1223087068870285</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04906215179350586</v>
+        <v>0.05222414222075699</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2416769900.281436</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3894630776.318213</v>
+        <v>4579439738.826308</v>
       </c>
       <c r="F55" t="n">
-        <v>0.164939170703204</v>
+        <v>0.152628363703792</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02202531113233078</v>
+        <v>0.03049945680924233</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1947315358.431199</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1450086378.579643</v>
+        <v>1154532840.089779</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1107906453382795</v>
+        <v>0.1038550711164597</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03533992070583</v>
+        <v>0.04861288552261209</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>725043238.9648429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4432983927.939103</v>
+        <v>2909184973.290651</v>
       </c>
       <c r="F57" t="n">
-        <v>0.162718837574732</v>
+        <v>0.1779293615312628</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01952875770961199</v>
+        <v>0.02160048075194045</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>121</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2216492088.706502</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1310205477.924463</v>
+        <v>1858610689.951139</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1552430680753476</v>
+        <v>0.1380600676802307</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02834822327468552</v>
+        <v>0.02679173072082121</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>655102787.4223024</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4010677413.392199</v>
+        <v>5368322945.839194</v>
       </c>
       <c r="F59" t="n">
-        <v>0.11507547081482</v>
+        <v>0.1270283082439114</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04462674475187537</v>
+        <v>0.03809626291555404</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>108</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2005338682.147846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3369751076.348269</v>
+        <v>2579771922.803007</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1738666895572023</v>
+        <v>0.2066356215680256</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0327691224829446</v>
+        <v>0.02660263017541152</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1684875647.322029</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3151865390.337695</v>
+        <v>3015573129.180973</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1250149124327908</v>
+        <v>0.1622417008116398</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02317706611932157</v>
+        <v>0.0255200886669902</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>130</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1575932661.329337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2008634222.786246</v>
+        <v>1921023753.445857</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1861533331783106</v>
+        <v>0.155279068325759</v>
       </c>
       <c r="G62" t="n">
-        <v>0.033349714659628</v>
+        <v>0.03096300043635294</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1004317170.781052</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4839193289.727645</v>
+        <v>4481108772.969612</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06591428071109341</v>
+        <v>0.0743509234502719</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04330338922882997</v>
+        <v>0.03829088878602457</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2419596669.804113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4411508011.284198</v>
+        <v>4132601398.251673</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1286285690112491</v>
+        <v>0.1852733141089049</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02146562926685508</v>
+        <v>0.03538809474617698</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>118</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2205754070.463433</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5912739270.62038</v>
+        <v>5897643782.583796</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1292110402237518</v>
+        <v>0.1737941447888586</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02470099776883211</v>
+        <v>0.02983188964065396</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>136</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2956369539.762328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4780069725.230196</v>
+        <v>3676857549.078879</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1333932699849986</v>
+        <v>0.1006080360637269</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04970680238944696</v>
+        <v>0.04376006228539302</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>110</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2390034877.975423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2316519876.408764</v>
+        <v>2920066203.012814</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08523377440532531</v>
+        <v>0.09572837983368057</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0403913810428379</v>
+        <v>0.03384351907017182</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>122</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1158260014.316972</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5031291740.261985</v>
+        <v>5526684187.882782</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1130232913173124</v>
+        <v>0.1053495270938464</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05143320186480738</v>
+        <v>0.04693799023227529</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2515645928.439559</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1663577570.146439</v>
+        <v>1559160804.370497</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1325649692940848</v>
+        <v>0.1503629672577102</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05325035958707908</v>
+        <v>0.05166522882768183</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>831788746.5675282</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2360805644.291642</v>
+        <v>3030290430.112765</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06302355031777013</v>
+        <v>0.09783746972478297</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03958453998853382</v>
+        <v>0.04467734710352346</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>108</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1180402757.560349</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3991738982.913112</v>
+        <v>4414427498.860095</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1595588433361232</v>
+        <v>0.1707817075750636</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02943806413344425</v>
+        <v>0.02971395760094122</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>138</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1995869521.906106</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1461974148.45581</v>
+        <v>2046541156.667394</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06593045271588896</v>
+        <v>0.07120061208762624</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0328533692789694</v>
+        <v>0.04288740436839306</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>730987107.353286</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3319027207.294193</v>
+        <v>2533514739.632955</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1028923252168488</v>
+        <v>0.09590398206280787</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05225648985045981</v>
+        <v>0.05184114995942792</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>144</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1659513570.420523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3153142611.84368</v>
+        <v>2670167290.11284</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1518114103077557</v>
+        <v>0.1208337359322014</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02925580903181225</v>
+        <v>0.03471918441384832</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>129</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1576571358.058795</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2465285870.099085</v>
+        <v>2035923564.415089</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1198186061498462</v>
+        <v>0.1098773510025485</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03063216876798525</v>
+        <v>0.02900620769448098</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1232642855.691061</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3794013844.0865</v>
+        <v>3268344548.050157</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09517717617578769</v>
+        <v>0.1156738860678816</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02375565240084115</v>
+        <v>0.02373162659935461</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1897006898.159334</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1873418758.142398</v>
+        <v>1542308706.893854</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1580982226064717</v>
+        <v>0.1817322428559752</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02989775591407104</v>
+        <v>0.02280923862962811</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>936709421.8790181</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3039559365.784204</v>
+        <v>4154664116.784341</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1207210902246395</v>
+        <v>0.1347138551131616</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05579200647830119</v>
+        <v>0.0371696081768537</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>132</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1519779717.349784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1901853068.657284</v>
+        <v>1920602470.727388</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1310696994043288</v>
+        <v>0.1573559260309576</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03991183778621053</v>
+        <v>0.03779748404900602</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>950926638.8596768</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5119531898.14023</v>
+        <v>3499044456.733601</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0965173100357988</v>
+        <v>0.1098339326869148</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02650266729902407</v>
+        <v>0.03038167810470876</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2559766004.221746</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5010348891.977965</v>
+        <v>5147492642.102431</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1054810182250636</v>
+        <v>0.1035620476101324</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02756202955865691</v>
+        <v>0.03052418704739863</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2505174446.721902</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4756400105.875936</v>
+        <v>4276380032.02608</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1366640732074502</v>
+        <v>0.215630213315694</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02225253020280708</v>
+        <v>0.02472970799254172</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>135</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2378200050.472938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1915815676.07674</v>
+        <v>2366276260.768942</v>
       </c>
       <c r="F83" t="n">
-        <v>0.10981103169639</v>
+        <v>0.1442577675559093</v>
       </c>
       <c r="G83" t="n">
-        <v>0.042045058915973</v>
+        <v>0.02831767545337592</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>957907812.9128308</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2186077233.324782</v>
+        <v>2227783605.914291</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08507028584765421</v>
+        <v>0.1056625441913568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0396321821296399</v>
+        <v>0.04420231628222032</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1093038594.438159</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2532731449.681968</v>
+        <v>2989988481.373865</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1282774100851689</v>
+        <v>0.1683363116805654</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04812792060452104</v>
+        <v>0.04403472760807367</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>143</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1266365733.419112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2485188755.582719</v>
+        <v>2214247511.708245</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1329791990544401</v>
+        <v>0.1169778976409796</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01750710708401095</v>
+        <v>0.01780800551830242</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1242594472.886609</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1500596848.82966</v>
+        <v>931097574.3317752</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1216586185322707</v>
+        <v>0.1483671275679913</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03562572190660275</v>
+        <v>0.04214928476811444</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>750298557.0695769</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2364385366.238701</v>
+        <v>3315540912.898583</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1342844140575126</v>
+        <v>0.1723487972306268</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03824310346151804</v>
+        <v>0.02429450690170538</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>150</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1182192650.76113</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3291869141.616016</v>
+        <v>2733099530.665675</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1400378184044464</v>
+        <v>0.1300497822408332</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03817620035935613</v>
+        <v>0.03555706526453158</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>129</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1645934587.535175</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1593118275.501739</v>
+        <v>1423289692.601602</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1295092202602433</v>
+        <v>0.1110867178918659</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04397820554205408</v>
+        <v>0.03465711368585666</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>796559133.5199382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1283612161.237821</v>
+        <v>1741905475.058908</v>
       </c>
       <c r="F91" t="n">
-        <v>0.127804153642713</v>
+        <v>0.1636788409284489</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05904335036285993</v>
+        <v>0.05633844126925384</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>641806148.3762132</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2936563840.436631</v>
+        <v>2332122163.248926</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06941684205536205</v>
+        <v>0.1000340141615653</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03929792957761004</v>
+        <v>0.03741387402556554</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>107</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1468281937.153711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3411730156.097434</v>
+        <v>3753319154.300421</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09731911002383296</v>
+        <v>0.08626989718637446</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05071574493547016</v>
+        <v>0.04444348158254987</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1705865116.718371</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1567379055.46636</v>
+        <v>2508054572.943759</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1606637671308029</v>
+        <v>0.1273903400738775</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03497247121708986</v>
+        <v>0.0383896912866458</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>783689469.8440728</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3150200698.780624</v>
+        <v>2011859383.249278</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1359131460576082</v>
+        <v>0.1241985357068305</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03785659940197672</v>
+        <v>0.03911444202827679</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>92</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1575100338.214712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1561855780.980006</v>
+        <v>1843166584.235669</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1395479867434017</v>
+        <v>0.1170597847042086</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04214549649998185</v>
+        <v>0.04459878276037638</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>780927924.2649102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3532144303.805495</v>
+        <v>5301513556.903101</v>
       </c>
       <c r="F97" t="n">
-        <v>0.169878297487486</v>
+        <v>0.1390691444312421</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02277518652720217</v>
+        <v>0.01858977099340682</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>122</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1766072170.668478</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3187882885.39678</v>
+        <v>2447784697.367268</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1016707797174452</v>
+        <v>0.1240182759092076</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02111149535404021</v>
+        <v>0.02367952551195919</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>100</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1593941440.129374</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3053041719.679541</v>
+        <v>2590305864.760407</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1015844106173418</v>
+        <v>0.09449073652749278</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02514176723049202</v>
+        <v>0.02292986692117689</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>119</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1526520849.693145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4590642265.419774</v>
+        <v>3515110356.030601</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1531737409449293</v>
+        <v>0.1459686606234995</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02016987684215565</v>
+        <v>0.02002349537927725</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>116</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2295321250.55367</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3516015610.270077</v>
+        <v>2638632785.533901</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2045558665664167</v>
+        <v>0.1463987461260621</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04297815465961351</v>
+        <v>0.0417213035358525</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>154</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1758007962.383041</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_380.xlsx
+++ b/output/fit_clients/fit_round_380.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1709481242.427037</v>
+        <v>1726464303.503723</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09800252402113128</v>
+        <v>0.09796357373571898</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03276607033302922</v>
+        <v>0.03097258717593724</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2214510380.496453</v>
+        <v>2128409359.946901</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1115582272864161</v>
+        <v>0.1747458710664572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04094442168771239</v>
+        <v>0.03381074764494683</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4808395436.518373</v>
+        <v>5162973925.357137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1242326410532298</v>
+        <v>0.1148162293555993</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02852302918578723</v>
+        <v>0.0273721907851739</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3538618368.128139</v>
+        <v>2847412690.206952</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07712809612834817</v>
+        <v>0.07841051558323696</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05093686321744118</v>
+        <v>0.04671674486329772</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2061300036.460244</v>
+        <v>2404113565.776807</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09555628487586583</v>
+        <v>0.1352028404007121</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05408616871779033</v>
+        <v>0.03919722431909382</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2255371557.723552</v>
+        <v>2189501024.743929</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06483042088462435</v>
+        <v>0.08128925804999573</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04783594581677721</v>
+        <v>0.04840719352871643</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3615230942.834787</v>
+        <v>3442123020.422122</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2101596472061927</v>
+        <v>0.2076502345164643</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02959216617476197</v>
+        <v>0.02319492988402416</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1570510223.986986</v>
+        <v>2268753531.605435</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1615538272446689</v>
+        <v>0.1293503583893549</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02926022670265738</v>
+        <v>0.02948639941207792</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4425495582.213765</v>
+        <v>3750472348.520859</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1993189714700802</v>
+        <v>0.1841329013252282</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04587525583118712</v>
+        <v>0.03852113697785985</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3392995934.848167</v>
+        <v>3056814007.443332</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1672244666786202</v>
+        <v>0.1172447016072726</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03231439809433679</v>
+        <v>0.045515730948059</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2334090646.609668</v>
+        <v>2976907424.962969</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1862086296974558</v>
+        <v>0.1515491517573236</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05247291454329348</v>
+        <v>0.05342563194619383</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4208892465.579869</v>
+        <v>4791881464.413433</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08571874889316586</v>
+        <v>0.07897010764300529</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02206240863013244</v>
+        <v>0.02083274989769766</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3890464246.187259</v>
+        <v>2860820196.617552</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1627838408648337</v>
+        <v>0.1789003193273309</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03922736767894006</v>
+        <v>0.03225426899939342</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1730999801.431252</v>
+        <v>1702879099.104979</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09647416113192861</v>
+        <v>0.09550592697271688</v>
       </c>
       <c r="G15" t="n">
-        <v>0.037535781798844</v>
+        <v>0.04717887712904913</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2718070285.905538</v>
+        <v>2745766659.167904</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0884210904754687</v>
+        <v>0.07361143477597668</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04459967230817762</v>
+        <v>0.04788630600367047</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3224871939.177822</v>
+        <v>3812726738.802102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1289613738078584</v>
+        <v>0.1361947403942243</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05158448552061722</v>
+        <v>0.04123962666140473</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2890748496.432638</v>
+        <v>3870987044.557063</v>
       </c>
       <c r="F18" t="n">
-        <v>0.132200387335358</v>
+        <v>0.1356452533487937</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02869287765192981</v>
+        <v>0.0261741939226715</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1345206337.937394</v>
+        <v>970304763.8623223</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1239176866695769</v>
+        <v>0.1740381576097358</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01658232071924952</v>
+        <v>0.02539773755196856</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1732069597.026352</v>
+        <v>1959516684.31612</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1367129629057599</v>
+        <v>0.1564821078993008</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02075109309104518</v>
+        <v>0.02748036122374683</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2592027866.756247</v>
+        <v>1793040122.242912</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08690946214141762</v>
+        <v>0.0807109730991773</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03090474200106437</v>
+        <v>0.02895431854371285</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2522584024.356577</v>
+        <v>3718779443.32658</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1225428601615902</v>
+        <v>0.1013264872078603</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04847424630489115</v>
+        <v>0.05434440442385375</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1457004866.157223</v>
+        <v>1293040261.215214</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1382422685321096</v>
+        <v>0.1850688864785137</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03848461444362924</v>
+        <v>0.04117974124993454</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2754407226.464938</v>
+        <v>2591586859.911232</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09395636908559184</v>
+        <v>0.110650756019535</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03190300457409246</v>
+        <v>0.02464671471535348</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1102186501.917885</v>
+        <v>1150236244.295822</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08833602644908949</v>
+        <v>0.08546280646554454</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02704223150761438</v>
+        <v>0.02017188574587784</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1019310714.048304</v>
+        <v>1446639406.192052</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1077958695977091</v>
+        <v>0.1081339740198122</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03753283072263987</v>
+        <v>0.02973998993914474</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3182671186.333709</v>
+        <v>3578710225.359176</v>
       </c>
       <c r="F27" t="n">
-        <v>0.115358575586043</v>
+        <v>0.1197124382167372</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02716780776490547</v>
+        <v>0.02389733925628092</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2797886023.706665</v>
+        <v>3394188002.921561</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0917151420202497</v>
+        <v>0.1002009863686681</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04249059127381148</v>
+        <v>0.04135786332808791</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4503212404.51517</v>
+        <v>3847307302.362372</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1393267370658341</v>
+        <v>0.1466319643379873</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03394964051381505</v>
+        <v>0.03647145390810697</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1475281884.640764</v>
+        <v>1905269022.736624</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09890798610261586</v>
+        <v>0.1256430732136735</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03684157585143891</v>
+        <v>0.03173037048751277</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>927057957.5987885</v>
+        <v>992347542.4210463</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1063964862688409</v>
+        <v>0.1013453485873589</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05095375886030249</v>
+        <v>0.03747944014160484</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1304110694.122614</v>
+        <v>1646028453.298044</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09082777550779546</v>
+        <v>0.08967456250148688</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0293823199806539</v>
+        <v>0.0290032138469999</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3033735584.372973</v>
+        <v>2046556988.813277</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2084104408493929</v>
+        <v>0.1967651744765795</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05981435100598587</v>
+        <v>0.06017868571005089</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1225209435.539412</v>
+        <v>1340588353.983371</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0910934200136114</v>
+        <v>0.08768616265638188</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01836902179671551</v>
+        <v>0.02020047574820919</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>928253938.0939617</v>
+        <v>917160727.1323696</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1066590975267701</v>
+        <v>0.1101773799201849</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02942007310101662</v>
+        <v>0.0379429589193373</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2580871413.894049</v>
+        <v>3229703952.043735</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1236548570778935</v>
+        <v>0.1427270100496284</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0263410727596897</v>
+        <v>0.02738367087886067</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2810747987.28151</v>
+        <v>1844746749.656024</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1065522141827738</v>
+        <v>0.08434845891353765</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03205989270528357</v>
+        <v>0.03872447856632731</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1846678555.658945</v>
+        <v>2152580848.025261</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09045375916965237</v>
+        <v>0.09876315111799343</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03795364971034298</v>
+        <v>0.03305365493627252</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1785876491.094784</v>
+        <v>1897178214.120008</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1831864020793343</v>
+        <v>0.1925208875301083</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02338671753848599</v>
+        <v>0.02023012403513506</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1805612950.881468</v>
+        <v>1811446913.600135</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1454116657461136</v>
+        <v>0.153690377304932</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04545548963514044</v>
+        <v>0.04428658845582745</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2182615755.918454</v>
+        <v>2586351906.52028</v>
       </c>
       <c r="F41" t="n">
-        <v>0.142830886820045</v>
+        <v>0.1535692224640978</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04107137963254375</v>
+        <v>0.04152811588773855</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3943837976.879508</v>
+        <v>2703011600.942651</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08900551930870228</v>
+        <v>0.07688251510898099</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03769893201601559</v>
+        <v>0.03226817419948193</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1923806162.302981</v>
+        <v>1901864787.091281</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1410628686159197</v>
+        <v>0.1884538796568287</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01767418025462089</v>
+        <v>0.02245490428121151</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2119179852.655722</v>
+        <v>2360619340.237128</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08030654161881519</v>
+        <v>0.08616336497471279</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0279904360565087</v>
+        <v>0.03329694808449354</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2408276420.650621</v>
+        <v>2006989568.40471</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1276265056847499</v>
+        <v>0.1717542352739413</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04037039302047376</v>
+        <v>0.05421093514348901</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4987477093.676342</v>
+        <v>4131543521.396433</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1588060788767319</v>
+        <v>0.1219004155985619</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03936357568388952</v>
+        <v>0.05019096152002473</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4619827738.644565</v>
+        <v>3246910825.440794</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1924570173623779</v>
+        <v>0.1956470601816439</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03656894495674246</v>
+        <v>0.04761111125195266</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3117375985.666265</v>
+        <v>3877019033.978514</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07587547152346032</v>
+        <v>0.07734079475415599</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02809968505062407</v>
+        <v>0.02775334109252437</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1788799115.055228</v>
+        <v>1530866060.321647</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1302097662586736</v>
+        <v>0.1742142170703338</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03817005754898943</v>
+        <v>0.04120496528446789</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3724977444.304723</v>
+        <v>3739569247.430342</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1076114299540721</v>
+        <v>0.1167344561152862</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04864849002390023</v>
+        <v>0.04582883452787014</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1152117158.991686</v>
+        <v>946658733.838523</v>
       </c>
       <c r="F51" t="n">
-        <v>0.191606976690759</v>
+        <v>0.1710452662028161</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04426891435953923</v>
+        <v>0.04852262247618827</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4436456371.38318</v>
+        <v>5129389131.033622</v>
       </c>
       <c r="F52" t="n">
-        <v>0.122890540376401</v>
+        <v>0.1261325024836426</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06184140289092675</v>
+        <v>0.04583770423425222</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3493533734.952237</v>
+        <v>2952138501.234511</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1307878648457633</v>
+        <v>0.1400101402925195</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02185213321089846</v>
+        <v>0.03399973552942704</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3958687524.272315</v>
+        <v>4951092871.678823</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1223087068870285</v>
+        <v>0.1607420776011045</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05222414222075699</v>
+        <v>0.04409758491095057</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4579439738.826308</v>
+        <v>3552148002.949674</v>
       </c>
       <c r="F55" t="n">
-        <v>0.152628363703792</v>
+        <v>0.20149153003217</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03049945680924233</v>
+        <v>0.03152146553219879</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1154532840.089779</v>
+        <v>1405592958.150747</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1038550711164597</v>
+        <v>0.1193512735074187</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04861288552261209</v>
+        <v>0.03690160314071871</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2909184973.290651</v>
+        <v>4203645738.181024</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1779293615312628</v>
+        <v>0.1252195375296244</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02160048075194045</v>
+        <v>0.01708874491027365</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1858610689.951139</v>
+        <v>1676301614.890609</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1380600676802307</v>
+        <v>0.169111574743243</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02679173072082121</v>
+        <v>0.03054585484923597</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5368322945.839194</v>
+        <v>4479302625.563807</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1270283082439114</v>
+        <v>0.107518868427303</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03809626291555404</v>
+        <v>0.04104129024906075</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2579771922.803007</v>
+        <v>3325765802.689528</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2066356215680256</v>
+        <v>0.1810157206950867</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02660263017541152</v>
+        <v>0.0216464162815817</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3015573129.180973</v>
+        <v>2824848648.758533</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1622417008116398</v>
+        <v>0.1386357267109754</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0255200886669902</v>
+        <v>0.02729173954732125</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1921023753.445857</v>
+        <v>2036696764.506771</v>
       </c>
       <c r="F62" t="n">
-        <v>0.155279068325759</v>
+        <v>0.1865436239065129</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03096300043635294</v>
+        <v>0.03058929712350619</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4481108772.969612</v>
+        <v>3618390395.974106</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0743509234502719</v>
+        <v>0.07051014537546804</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03829088878602457</v>
+        <v>0.04492549204900877</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4132601398.251673</v>
+        <v>4260825493.039309</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1852733141089049</v>
+        <v>0.190546363779754</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03538809474617698</v>
+        <v>0.03419616601072946</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5897643782.583796</v>
+        <v>4060043911.410739</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1737941447888586</v>
+        <v>0.117262671478591</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02983188964065396</v>
+        <v>0.03036158919784808</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3676857549.078879</v>
+        <v>3536259842.535129</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1006080360637269</v>
+        <v>0.1256351935113742</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04376006228539302</v>
+        <v>0.04745752277871895</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2920066203.012814</v>
+        <v>3015959904.157276</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09572837983368057</v>
+        <v>0.0936449858428994</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03384351907017182</v>
+        <v>0.05126570754608577</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5526684187.882782</v>
+        <v>4186715586.622458</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1053495270938464</v>
+        <v>0.1036293075775609</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04693799023227529</v>
+        <v>0.04298320236511</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1559160804.370497</v>
+        <v>1826921102.075005</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1503629672577102</v>
+        <v>0.1686110774920523</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05166522882768183</v>
+        <v>0.05469724259807358</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3030290430.112765</v>
+        <v>3296459484.429789</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09783746972478297</v>
+        <v>0.07613908354238925</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04467734710352346</v>
+        <v>0.0479565805071643</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4414427498.860095</v>
+        <v>5339188328.369297</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1707817075750636</v>
+        <v>0.1386885069951131</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02971395760094122</v>
+        <v>0.03255850174680911</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2046541156.667394</v>
+        <v>1827908102.042655</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07120061208762624</v>
+        <v>0.1086587230941594</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04288740436839306</v>
+        <v>0.04653329676625117</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2533514739.632955</v>
+        <v>2192366465.543186</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09590398206280787</v>
+        <v>0.1038795474589797</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05184114995942792</v>
+        <v>0.0382634755811658</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2670167290.11284</v>
+        <v>3113874162.882983</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1208337359322014</v>
+        <v>0.1657836892904581</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03471918441384832</v>
+        <v>0.03251491676785088</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2035923564.415089</v>
+        <v>1945979654.772552</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1098773510025485</v>
+        <v>0.1622912143035358</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02900620769448098</v>
+        <v>0.02398172381049941</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3268344548.050157</v>
+        <v>3308039677.20036</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1156738860678816</v>
+        <v>0.1140476876597713</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02373162659935461</v>
+        <v>0.02538755117139588</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1542308706.893854</v>
+        <v>1457365948.846713</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1817322428559752</v>
+        <v>0.1634212565286598</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02280923862962811</v>
+        <v>0.0236624280701085</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4154664116.784341</v>
+        <v>3423374469.296004</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1347138551131616</v>
+        <v>0.1051223968736859</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0371696081768537</v>
+        <v>0.0438463073150791</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1920602470.727388</v>
+        <v>1639564600.399391</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1573559260309576</v>
+        <v>0.1652074409055993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03779748404900602</v>
+        <v>0.03153407407229575</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3499044456.733601</v>
+        <v>4804177448.30479</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1098339326869148</v>
+        <v>0.09584630029673098</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03038167810470876</v>
+        <v>0.03682876235499413</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5147492642.102431</v>
+        <v>4733477249.748762</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1035620476101324</v>
+        <v>0.09296751533427848</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03052418704739863</v>
+        <v>0.02520418121505353</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4276380032.02608</v>
+        <v>5341950900.196133</v>
       </c>
       <c r="F82" t="n">
-        <v>0.215630213315694</v>
+        <v>0.1927552775716679</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02472970799254172</v>
+        <v>0.02022766411232045</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2366276260.768942</v>
+        <v>2303344126.22958</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1442577675559093</v>
+        <v>0.1193122328792015</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02831767545337592</v>
+        <v>0.02899246886516642</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2227783605.914291</v>
+        <v>2314963604.873995</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1056625441913568</v>
+        <v>0.09682600753084666</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04420231628222032</v>
+        <v>0.03565743903392213</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2989988481.373865</v>
+        <v>2941602307.465806</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1683363116805654</v>
+        <v>0.1596218341899792</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04403472760807367</v>
+        <v>0.05249300273122055</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2214247511.708245</v>
+        <v>2684559788.667448</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1169778976409796</v>
+        <v>0.1620507179457982</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01780800551830242</v>
+        <v>0.02097176252142314</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>931097574.3317752</v>
+        <v>1299732194.548297</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1483671275679913</v>
+        <v>0.1874158913430825</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04214928476811444</v>
+        <v>0.03431843286330109</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3315540912.898583</v>
+        <v>2875675209.265583</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1723487972306268</v>
+        <v>0.1301821942901176</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02429450690170538</v>
+        <v>0.03946778476355584</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2733099530.665675</v>
+        <v>2711582818.045064</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1300497822408332</v>
+        <v>0.111564256163512</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03555706526453158</v>
+        <v>0.03541907042685171</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1423289692.601602</v>
+        <v>1977092307.884166</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1110867178918659</v>
+        <v>0.1032416435531019</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03465711368585666</v>
+        <v>0.04676052965267786</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1741905475.058908</v>
+        <v>1894872157.099194</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1636788409284489</v>
+        <v>0.192351288597689</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05633844126925384</v>
+        <v>0.05459327496118852</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2332122163.248926</v>
+        <v>2812970469.03203</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1000340141615653</v>
+        <v>0.1070839398325069</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03741387402556554</v>
+        <v>0.02908301828903707</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3753319154.300421</v>
+        <v>3520369306.354108</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08626989718637446</v>
+        <v>0.1382126629174335</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04444348158254987</v>
+        <v>0.04423721983165247</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2508054572.943759</v>
+        <v>2090865008.091589</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1273903400738775</v>
+        <v>0.1124238071270797</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0383896912866458</v>
+        <v>0.02871250398216528</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2011859383.249278</v>
+        <v>2553422220.328088</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1241985357068305</v>
+        <v>0.09678688882248995</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03911444202827679</v>
+        <v>0.04813154998973084</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1843166584.235669</v>
+        <v>1705078883.094356</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1170597847042086</v>
+        <v>0.1351603842928104</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04459878276037638</v>
+        <v>0.03735776039165947</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5301513556.903101</v>
+        <v>3362289991.728265</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1390691444312421</v>
+        <v>0.1458490271578351</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01858977099340682</v>
+        <v>0.0241738657254096</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2447784697.367268</v>
+        <v>3517719196.10127</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1240182759092076</v>
+        <v>0.1032587779009534</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02367952551195919</v>
+        <v>0.03077249386433763</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2590305864.760407</v>
+        <v>2255969508.732242</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09449073652749278</v>
+        <v>0.1452512889759261</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02292986692117689</v>
+        <v>0.02455875426393913</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3515110356.030601</v>
+        <v>4811220524.549826</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1459686606234995</v>
+        <v>0.1188909384245011</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02002349537927725</v>
+        <v>0.02449576441516686</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2638632785.533901</v>
+        <v>3000950612.010258</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1463987461260621</v>
+        <v>0.2181626533176467</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0417213035358525</v>
+        <v>0.05331356912222367</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_380.xlsx
+++ b/output/fit_clients/fit_round_380.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1726464303.503723</v>
+        <v>2191553470.116642</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09796357373571898</v>
+        <v>0.0795803230222065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03097258717593724</v>
+        <v>0.04245567231748264</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2128409359.946901</v>
+        <v>1869054884.908227</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1747458710664572</v>
+        <v>0.1374442097787791</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03381074764494683</v>
+        <v>0.03623600931815921</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5162973925.357137</v>
+        <v>4241891057.25477</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1148162293555993</v>
+        <v>0.1646186224731136</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0273721907851739</v>
+        <v>0.03339633360146146</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>194</v>
+      </c>
+      <c r="J4" t="n">
+        <v>380</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2847412690.206952</v>
+        <v>3891087019.389984</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07841051558323696</v>
+        <v>0.08400141923151884</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04671674486329772</v>
+        <v>0.03464245498153947</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>151</v>
+      </c>
+      <c r="J5" t="n">
+        <v>380</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2404113565.776807</v>
+        <v>2771854018.028123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1352028404007121</v>
+        <v>0.1082551031101809</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03919722431909382</v>
+        <v>0.05686875355024185</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2189501024.743929</v>
+        <v>2752126706.374343</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08128925804999573</v>
+        <v>0.08222711618404333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04840719352871643</v>
+        <v>0.04870832145034188</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3442123020.422122</v>
+        <v>3025540599.226181</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2076502345164643</v>
+        <v>0.2074803918057359</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02319492988402416</v>
+        <v>0.0205130628630023</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>101</v>
+      </c>
+      <c r="J8" t="n">
+        <v>378</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2268753531.605435</v>
+        <v>2022517873.958252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1293503583893549</v>
+        <v>0.1603811143280789</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02948639941207792</v>
+        <v>0.02548244774775021</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3750472348.520859</v>
+        <v>4749679175.886988</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1841329013252282</v>
+        <v>0.2098900086654989</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03852113697785985</v>
+        <v>0.05218752026510171</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J10" t="n">
+        <v>379</v>
+      </c>
+      <c r="K10" t="n">
+        <v>54.50877162862584</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3056814007.443332</v>
+        <v>3538719570.569388</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1172447016072726</v>
+        <v>0.1288292169967382</v>
       </c>
       <c r="G11" t="n">
-        <v>0.045515730948059</v>
+        <v>0.04159306158290892</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>160</v>
+      </c>
+      <c r="J11" t="n">
+        <v>378</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2976907424.962969</v>
+        <v>3100832130.521728</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1515491517573236</v>
+        <v>0.1259082198264961</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05342563194619383</v>
+        <v>0.04807285063120133</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4791881464.413433</v>
+        <v>3857961629.648118</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07897010764300529</v>
+        <v>0.08481081959132639</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02083274989769766</v>
+        <v>0.0294564145662777</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>197</v>
+      </c>
+      <c r="J13" t="n">
+        <v>379</v>
+      </c>
+      <c r="K13" t="n">
+        <v>54.24756391995997</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2860820196.617552</v>
+        <v>3306147929.76037</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1789003193273309</v>
+        <v>0.1195549819369661</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03225426899939342</v>
+        <v>0.03445102285954606</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>373</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1702879099.104979</v>
+        <v>1406180909.308381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09550592697271688</v>
+        <v>0.08531218111755892</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04717887712904913</v>
+        <v>0.0333272455197749</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2745766659.167904</v>
+        <v>2678762845.461973</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07361143477597668</v>
+        <v>0.07675060806189177</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04788630600367047</v>
+        <v>0.03348474050012751</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3812726738.802102</v>
+        <v>3443585013.902455</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1361947403942243</v>
+        <v>0.1212789433128508</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04123962666140473</v>
+        <v>0.04714107459338981</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>181</v>
+      </c>
+      <c r="J17" t="n">
+        <v>379</v>
+      </c>
+      <c r="K17" t="n">
+        <v>43.56783022664374</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3870987044.557063</v>
+        <v>2698977689.152269</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1356452533487937</v>
+        <v>0.1441648452184788</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0261741939226715</v>
+        <v>0.02281734034111151</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>93</v>
+      </c>
+      <c r="J18" t="n">
+        <v>378</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>970304763.8623223</v>
+        <v>923062442.7427521</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1740381576097358</v>
+        <v>0.1885844660356127</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02539773755196856</v>
+        <v>0.02170485196068533</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1959516684.31612</v>
+        <v>2094644179.182258</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1564821078993008</v>
+        <v>0.1207711128029961</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02748036122374683</v>
+        <v>0.03037393056194976</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1793040122.242912</v>
+        <v>1902538659.728317</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0807109730991773</v>
+        <v>0.06200672973678359</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02895431854371285</v>
+        <v>0.04300673010575451</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3718779443.32658</v>
+        <v>2731458784.833917</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1013264872078603</v>
+        <v>0.09863936017402461</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05434440442385375</v>
+        <v>0.03784523311868792</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="n">
+        <v>31.65398817121439</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1293040261.215214</v>
+        <v>1066323507.866374</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1850688864785137</v>
+        <v>0.1151712961360909</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04117974124993454</v>
+        <v>0.0360760437889708</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2591586859.911232</v>
+        <v>3972109105.357992</v>
       </c>
       <c r="F24" t="n">
-        <v>0.110650756019535</v>
+        <v>0.1012850658219397</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02464671471535348</v>
+        <v>0.02697522450685577</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>117</v>
+      </c>
+      <c r="J24" t="n">
+        <v>380</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1150236244.295822</v>
+        <v>1103307110.915665</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08546280646554454</v>
+        <v>0.1173893884884996</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02017188574587784</v>
+        <v>0.0257185559949015</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1446639406.192052</v>
+        <v>882488690.3819578</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1081339740198122</v>
+        <v>0.08816981701384907</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02973998993914474</v>
+        <v>0.02641045996217659</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3578710225.359176</v>
+        <v>3206115215.05177</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1197124382167372</v>
+        <v>0.1529678461969135</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02389733925628092</v>
+        <v>0.02284129277216006</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>158</v>
+      </c>
+      <c r="J27" t="n">
+        <v>379</v>
+      </c>
+      <c r="K27" t="n">
+        <v>40.33488703378584</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3394188002.921561</v>
+        <v>2500378633.69874</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1002009863686681</v>
+        <v>0.1001659260217782</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04135786332808791</v>
+        <v>0.04774956513811226</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>89</v>
+      </c>
+      <c r="J28" t="n">
+        <v>377</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3847307302.362372</v>
+        <v>5522978301.84354</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1466319643379873</v>
+        <v>0.1084093071498081</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03647145390810697</v>
+        <v>0.03771069757409032</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>328</v>
+      </c>
+      <c r="J29" t="n">
+        <v>380</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1905269022.736624</v>
+        <v>2373201901.419574</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1256430732136735</v>
+        <v>0.09691185650592414</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03173037048751277</v>
+        <v>0.02828592582016346</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>992347542.4210463</v>
+        <v>1177242417.25331</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1013453485873589</v>
+        <v>0.1032269812406572</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03747944014160484</v>
+        <v>0.04997919186587264</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1646028453.298044</v>
+        <v>1505864644.860245</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08967456250148688</v>
+        <v>0.08861470724667114</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0290032138469999</v>
+        <v>0.03061329550165262</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2046556988.813277</v>
+        <v>2509342086.429076</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1967651744765795</v>
+        <v>0.1987523418608912</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06017868571005089</v>
+        <v>0.05484247215256743</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1340588353.983371</v>
+        <v>1257673139.929542</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08768616265638188</v>
+        <v>0.1043924831050268</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02020047574820919</v>
+        <v>0.02819640306476038</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>917160727.1323696</v>
+        <v>979981018.7470735</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1101773799201849</v>
+        <v>0.08740372173663105</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0379429589193373</v>
+        <v>0.0328701879254883</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3229703952.043735</v>
+        <v>2840966754.116536</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1427270100496284</v>
+        <v>0.1550259259796655</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02738367087886067</v>
+        <v>0.02027871607929847</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1844746749.656024</v>
+        <v>2035358130.863789</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08434845891353765</v>
+        <v>0.07234896058342125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03872447856632731</v>
+        <v>0.03041495435236986</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2152580848.025261</v>
+        <v>1444019439.48297</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09876315111799343</v>
+        <v>0.118155098637745</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03305365493627252</v>
+        <v>0.03517960572624986</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1897178214.120008</v>
+        <v>1859929357.976439</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1925208875301083</v>
+        <v>0.1579015252074037</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02023012403513506</v>
+        <v>0.02014323674101623</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1811446913.600135</v>
+        <v>1571365601.65903</v>
       </c>
       <c r="F40" t="n">
-        <v>0.153690377304932</v>
+        <v>0.1114964926033142</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04428658845582745</v>
+        <v>0.0448091623950088</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2586351906.52028</v>
+        <v>1980093505.379518</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1535692224640978</v>
+        <v>0.1441237471726939</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04152811588773855</v>
+        <v>0.04117195123916387</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2703011600.942651</v>
+        <v>3477221827.020214</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07688251510898099</v>
+        <v>0.0802391573213916</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03226817419948193</v>
+        <v>0.03324488568497235</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>167</v>
+      </c>
+      <c r="J42" t="n">
+        <v>379</v>
+      </c>
+      <c r="K42" t="n">
+        <v>51.02158026492119</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1901864787.091281</v>
+        <v>2986625763.811198</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1884538796568287</v>
+        <v>0.184406112007853</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02245490428121151</v>
+        <v>0.02133205321624202</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2360619340.237128</v>
+        <v>1855801668.359414</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08616336497471279</v>
+        <v>0.0931111164039778</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03329694808449354</v>
+        <v>0.0310761624079445</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2006989568.40471</v>
+        <v>2302901931.987988</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1717542352739413</v>
+        <v>0.1376372123074794</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05421093514348901</v>
+        <v>0.04621430686408561</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4131543521.396433</v>
+        <v>3857834015.636201</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1219004155985619</v>
+        <v>0.170415416831227</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05019096152002473</v>
+        <v>0.04976384683436691</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>227</v>
+      </c>
+      <c r="J46" t="n">
+        <v>380</v>
+      </c>
+      <c r="K46" t="n">
+        <v>56.01533682103842</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3246910825.440794</v>
+        <v>4438694654.342477</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1956470601816439</v>
+        <v>0.1889254628723369</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04761111125195266</v>
+        <v>0.0509101705809571</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>170</v>
+      </c>
+      <c r="J47" t="n">
+        <v>379</v>
+      </c>
+      <c r="K47" t="n">
+        <v>49.72096460418292</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3877019033.978514</v>
+        <v>3165308126.584908</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07734079475415599</v>
+        <v>0.09449749427427606</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02775334109252437</v>
+        <v>0.03765130993779407</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>197</v>
+      </c>
+      <c r="J48" t="n">
+        <v>379</v>
+      </c>
+      <c r="K48" t="n">
+        <v>35.39585978015993</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1530866060.321647</v>
+        <v>1738353252.906314</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1742142170703338</v>
+        <v>0.1361963555980112</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04120496528446789</v>
+        <v>0.04284090498881852</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3739569247.430342</v>
+        <v>3675526319.519098</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1167344561152862</v>
+        <v>0.1191532650138375</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04582883452787014</v>
+        <v>0.04309825188746472</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>130</v>
+      </c>
+      <c r="J50" t="n">
+        <v>379</v>
+      </c>
+      <c r="K50" t="n">
+        <v>53.29753618017899</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>946658733.838523</v>
+        <v>1030081063.05363</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1710452662028161</v>
+        <v>0.1800300138853897</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04852262247618827</v>
+        <v>0.04385387618571242</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5129389131.033622</v>
+        <v>4626765362.290191</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1261325024836426</v>
+        <v>0.1198690308040711</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04583770423425222</v>
+        <v>0.04525013777814121</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>223</v>
+      </c>
+      <c r="J52" t="n">
+        <v>379</v>
+      </c>
+      <c r="K52" t="n">
+        <v>52.37114947038366</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2952138501.234511</v>
+        <v>3674556994.371725</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1400101402925195</v>
+        <v>0.1238248994406528</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03399973552942704</v>
+        <v>0.03319965039104045</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>380</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4951092871.678823</v>
+        <v>3939996164.338614</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1607420776011045</v>
+        <v>0.1519245097264686</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04409758491095057</v>
+        <v>0.03316985273649497</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>202</v>
+      </c>
+      <c r="J54" t="n">
+        <v>380</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3552148002.949674</v>
+        <v>4435021018.357509</v>
       </c>
       <c r="F55" t="n">
-        <v>0.20149153003217</v>
+        <v>0.2068636451065105</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03152146553219879</v>
+        <v>0.02942860494897961</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>183</v>
+      </c>
+      <c r="J55" t="n">
+        <v>380</v>
+      </c>
+      <c r="K55" t="n">
+        <v>56.31356749080143</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1405592958.150747</v>
+        <v>1357125391.153928</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1193512735074187</v>
+        <v>0.1474421314986268</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03690160314071871</v>
+        <v>0.05090421171542951</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4203645738.181024</v>
+        <v>4535376817.091393</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1252195375296244</v>
+        <v>0.1401023035601779</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01708874491027365</v>
+        <v>0.02663596717826529</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>160</v>
+      </c>
+      <c r="J57" t="n">
+        <v>380</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1676301614.890609</v>
+        <v>1353930775.25861</v>
       </c>
       <c r="F58" t="n">
-        <v>0.169111574743243</v>
+        <v>0.1356435474908799</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03054585484923597</v>
+        <v>0.02398518893969459</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4479302625.563807</v>
+        <v>3635400032.293664</v>
       </c>
       <c r="F59" t="n">
-        <v>0.107518868427303</v>
+        <v>0.1166909630228552</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04104129024906075</v>
+        <v>0.04595207352702734</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>184</v>
+      </c>
+      <c r="J59" t="n">
+        <v>380</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3325765802.689528</v>
+        <v>2953898081.94995</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1810157206950867</v>
+        <v>0.1599983459457584</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0216464162815817</v>
+        <v>0.02510916573446685</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="n">
+        <v>44.01467896068434</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2824848648.758533</v>
+        <v>2664690858.441861</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1386357267109754</v>
+        <v>0.1772780326981223</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02729173954732125</v>
+        <v>0.03281359724266953</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2036696764.506771</v>
+        <v>1621309006.900823</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1865436239065129</v>
+        <v>0.1284719896154786</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03058929712350619</v>
+        <v>0.04569096423056785</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3618390395.974106</v>
+        <v>4350524586.270161</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07051014537546804</v>
+        <v>0.08435647660642344</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04492549204900877</v>
+        <v>0.04521200723331208</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>188</v>
+      </c>
+      <c r="J63" t="n">
+        <v>380</v>
+      </c>
+      <c r="K63" t="n">
+        <v>55.28052039172274</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2699,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4260825493.039309</v>
+        <v>3794448839.544631</v>
       </c>
       <c r="F64" t="n">
-        <v>0.190546363779754</v>
+        <v>0.1324119329915477</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03419616601072946</v>
+        <v>0.02615806224785484</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>189</v>
+      </c>
+      <c r="J64" t="n">
+        <v>379</v>
+      </c>
+      <c r="K64" t="n">
+        <v>52.02722908004299</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2736,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4060043911.410739</v>
+        <v>3957036531.868358</v>
       </c>
       <c r="F65" t="n">
-        <v>0.117262671478591</v>
+        <v>0.1084923868304399</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03036158919784808</v>
+        <v>0.02017561786472731</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>285</v>
+      </c>
+      <c r="J65" t="n">
+        <v>380</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3536259842.535129</v>
+        <v>4540083027.296358</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1256351935113742</v>
+        <v>0.1538466012957909</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04745752277871895</v>
+        <v>0.03852678125992037</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>188</v>
+      </c>
+      <c r="J66" t="n">
+        <v>379</v>
+      </c>
+      <c r="K66" t="n">
+        <v>52.54740207002293</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2808,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3015959904.157276</v>
+        <v>2806728382.864546</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0936449858428994</v>
+        <v>0.08697323028484494</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05126570754608577</v>
+        <v>0.04961292244126207</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2837,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4186715586.622458</v>
+        <v>5835575571.614842</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1036293075775609</v>
+        <v>0.1576705568266508</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04298320236511</v>
+        <v>0.03481798308438128</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>206</v>
+      </c>
+      <c r="J68" t="n">
+        <v>379</v>
+      </c>
+      <c r="K68" t="n">
+        <v>54.39138972102248</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1826921102.075005</v>
+        <v>2427257604.564236</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1686110774920523</v>
+        <v>0.1521676948370943</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05469724259807358</v>
+        <v>0.05315095439815401</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2915,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3296459484.429789</v>
+        <v>2526071694.272547</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07613908354238925</v>
+        <v>0.0868441488005873</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0479565805071643</v>
+        <v>0.04941835901697237</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5339188328.369297</v>
+        <v>5552081565.682995</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1386885069951131</v>
+        <v>0.1191770736456138</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03255850174680911</v>
+        <v>0.03393899012329106</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>271</v>
+      </c>
+      <c r="J71" t="n">
+        <v>380</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1827908102.042655</v>
+        <v>2129053997.890966</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1086587230941594</v>
+        <v>0.08965825319838522</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04653329676625117</v>
+        <v>0.04512341124628672</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2192366465.543186</v>
+        <v>3566942657.818654</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1038795474589797</v>
+        <v>0.1088003134687485</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0382634755811658</v>
+        <v>0.04511536917318103</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="n">
+        <v>378</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3049,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3113874162.882983</v>
+        <v>3933849954.523669</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1657836892904581</v>
+        <v>0.16664716356627</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03251491676785088</v>
+        <v>0.02618697980393104</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>108</v>
+      </c>
+      <c r="J74" t="n">
+        <v>380</v>
+      </c>
+      <c r="K74" t="n">
+        <v>69.93705758895554</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1945979654.772552</v>
+        <v>1593720513.003708</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1622912143035358</v>
+        <v>0.1127829392481885</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02398172381049941</v>
+        <v>0.03373564216816842</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3308039677.20036</v>
+        <v>4615083540.801079</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1140476876597713</v>
+        <v>0.09637596413865382</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02538755117139588</v>
+        <v>0.0324683583395193</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>179</v>
+      </c>
+      <c r="J76" t="n">
+        <v>380</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1457365948.846713</v>
+        <v>1895690391.606308</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1634212565286598</v>
+        <v>0.1133212931341067</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0236624280701085</v>
+        <v>0.02885811733368226</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3423374469.296004</v>
+        <v>3226162811.553507</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1051223968736859</v>
+        <v>0.1354705941352981</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0438463073150791</v>
+        <v>0.04548974906008211</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>190</v>
+      </c>
+      <c r="J78" t="n">
+        <v>378</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1639564600.399391</v>
+        <v>1199057017.274323</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1652074409055993</v>
+        <v>0.146713137672875</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03153407407229575</v>
+        <v>0.02684805179057624</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4804177448.30479</v>
+        <v>5611452929.17409</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09584630029673098</v>
+        <v>0.09181065072288046</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03682876235499413</v>
+        <v>0.02338932501881056</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>185</v>
+      </c>
+      <c r="J80" t="n">
+        <v>380</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4733477249.748762</v>
+        <v>4554310810.547153</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09296751533427848</v>
+        <v>0.1064435962079478</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02520418121505353</v>
+        <v>0.02252749206166641</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>176</v>
+      </c>
+      <c r="J81" t="n">
+        <v>380</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5341950900.196133</v>
+        <v>5401340102.702006</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1927552775716679</v>
+        <v>0.2154258869955995</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02022766411232045</v>
+        <v>0.02149937656791906</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>263</v>
+      </c>
+      <c r="J82" t="n">
+        <v>379</v>
+      </c>
+      <c r="K82" t="n">
+        <v>53.60040453893281</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2303344126.22958</v>
+        <v>1829945792.619293</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1193122328792015</v>
+        <v>0.1386711930262855</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02899246886516642</v>
+        <v>0.04556380412648568</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2314963604.873995</v>
+        <v>2100722485.958179</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09682600753084666</v>
+        <v>0.09870099554221873</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03565743903392213</v>
+        <v>0.03324974782805729</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2941602307.465806</v>
+        <v>3057263228.300604</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1596218341899792</v>
+        <v>0.1257273095715348</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05249300273122055</v>
+        <v>0.05674605850084697</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2684559788.667448</v>
+        <v>2031449437.300563</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1620507179457982</v>
+        <v>0.1165423213326305</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02097176252142314</v>
+        <v>0.02347690503819413</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1299732194.548297</v>
+        <v>1238705460.813189</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1874158913430825</v>
+        <v>0.1762106433668037</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03431843286330109</v>
+        <v>0.04345697655877447</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2875675209.265583</v>
+        <v>2445085848.491956</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1301821942901176</v>
+        <v>0.1434854811984577</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03946778476355584</v>
+        <v>0.03184143601066769</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>48</v>
+      </c>
+      <c r="J88" t="n">
+        <v>374</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2711582818.045064</v>
+        <v>3433270979.803618</v>
       </c>
       <c r="F89" t="n">
-        <v>0.111564256163512</v>
+        <v>0.1245069207127533</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03541907042685171</v>
+        <v>0.03765230995903626</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1977092307.884166</v>
+        <v>2064327005.126569</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1032416435531019</v>
+        <v>0.1083916931479542</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04676052965267786</v>
+        <v>0.05142993012621024</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1894872157.099194</v>
+        <v>1936236918.835285</v>
       </c>
       <c r="F91" t="n">
-        <v>0.192351288597689</v>
+        <v>0.122736922642222</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05459327496118852</v>
+        <v>0.04548010785338622</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2812970469.03203</v>
+        <v>2741996588.039521</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1070839398325069</v>
+        <v>0.09512455634916853</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02908301828903707</v>
+        <v>0.0312946729852242</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3520369306.354108</v>
+        <v>4432200530.294521</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1382126629174335</v>
+        <v>0.1203247971172855</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04423721983165247</v>
+        <v>0.03833354456055384</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>179</v>
+      </c>
+      <c r="J93" t="n">
+        <v>380</v>
+      </c>
+      <c r="K93" t="n">
+        <v>56.00424766527659</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2090865008.091589</v>
+        <v>2517493549.126544</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1124238071270797</v>
+        <v>0.1689427550895543</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02871250398216528</v>
+        <v>0.02656555078412547</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2553422220.328088</v>
+        <v>3214079377.86229</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09678688882248995</v>
+        <v>0.09232789399979782</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04813154998973084</v>
+        <v>0.04963573959421092</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1705078883.094356</v>
+        <v>2385631270.680613</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1351603842928104</v>
+        <v>0.1137530131606201</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03735776039165947</v>
+        <v>0.03572056836428106</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3362289991.728265</v>
+        <v>4298355755.315089</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1458490271578351</v>
+        <v>0.1075441314814522</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0241738657254096</v>
+        <v>0.02672105839204717</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>196</v>
+      </c>
+      <c r="J97" t="n">
+        <v>380</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3517719196.10127</v>
+        <v>2618018806.105809</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1032587779009534</v>
+        <v>0.1078341966183703</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03077249386433763</v>
+        <v>0.0301121874971177</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>375</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2255969508.732242</v>
+        <v>2367356200.270674</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1452512889759261</v>
+        <v>0.1052830702278899</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02455875426393913</v>
+        <v>0.02884958536030464</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4811220524.549826</v>
+        <v>3950297717.672655</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1188909384245011</v>
+        <v>0.1289544057727821</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02449576441516686</v>
+        <v>0.0181176305992733</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>174</v>
+      </c>
+      <c r="J100" t="n">
+        <v>380</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3000950612.010258</v>
+        <v>2731830824.659209</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2181626533176467</v>
+        <v>0.1749358370009545</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05331356912222367</v>
+        <v>0.03884239419947798</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
